--- a/pred_ohlcv/54_21/2019-10-05 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>191438.9222660339</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>191448.9222660339</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>429742.6590121998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>429752.6590121998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>555177.4848121998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>547921.3703121998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>529241.1510121998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>526444.0931121998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>526454.0931121998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>526464.0931121998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>522233.0931121998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>522123.3431121998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>511923.6021121998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>513923.6021121998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>513933.6021121998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>506360.3046121998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>529153.1178121998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>543438.8501121997</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>541563.6046121997</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>541063.6046121997</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>546828.5401121997</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>617667.8105121998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>783762.5683121998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>794236.1765121998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>788637.6488121998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>888083.7039121998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1016332.3063122</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>999702.8990121998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1153502.712239111</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1190102.458939111</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1170538.173039111</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1294903.030339111</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1268892.030339111</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1304004.395939111</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1324504.395939111</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1315160.425539111</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1411746.356039111</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1402861.456339111</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1342528.497339111</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1250206.746239111</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1298620.043339111</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1278522.021239111</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1288561.110739111</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1278506.489439111</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1261861.797539111</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1264892.308139111</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1264914.131839111</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1259116.217039111</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1258491.569439111</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1258507.569439111</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1256759.631139111</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1215727.349339111</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1366037.219714643</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1358339.467514643</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1265218.636014643</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1220119.288714643</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1220140.288714643</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1221272.018514643</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1125267.489514644</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1125277.489514644</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1121643.379214644</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1122787.009214643</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1121809.062214643</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1109198.374714643</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1023446.958814643</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1030333.203214643</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>970631.4690146435</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>960072.0409466495</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>914052.0388466495</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>945520.8766786556</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>945920.8766786556</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>947957.3879786556</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1002829.085178656</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1002482.217478656</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>951495.3926786557</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>944742.8547786557</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>944743.8547786557</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>943304.0516786557</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>943475.5969786557</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>953851.0409786557</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>951851.0409786557</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>991151.0409786557</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>990843.3592786557</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1017334.720378656</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1017049.367678656</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1017383.164078656</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1019504.367678656</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1050242.271478656</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1060767.305478656</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1064814.707178656</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1144614.707178656</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1145599.195978656</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1241937.697278656</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1461194.175978656</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1591436.011178656</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1843534.737282073</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4058317.733590961</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3963596.51129096</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3706693.23009096</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3486617.02829096</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3641244.36139096</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3691208.19169096</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3750049.55079096</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3646762.58299096</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3522508.12539096</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3633118.451190961</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3595615.413790961</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3613231.037390961</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3561621.601590961</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3567073.987090961</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3511056.613990961</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3252291.99129096</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3292521.663690961</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>204791.3180161465</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>138359.5620161465</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>193963.3607161465</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>253380.3732161465</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>157910.6156161465</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>157920.6256161465</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>130976.9550161465</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>143363.6018161465</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>86039.57201614653</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>85640.97971614652</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>85674.97971614652</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>29022.60361614652</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>29032.60361614652</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-199135.3623838535</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-198939.5380838535</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-204723.4644838535</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-241388.0583838535</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-290795.5212838534</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-441445.2986838535</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-339437.7906838534</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-355462.6805838534</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-326956.6805838534</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-329491.2835838535</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-335953.5555838534</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-207915.0723838535</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-216915.0723838535</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-76060.13908385346</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-52592.41758385346</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-52792.41758385346</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-36961.05828385346</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-30701.66678385346</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-445951.9956838535</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-425924.9597838534</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-440282.8267838535</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-343591.2461838535</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-348366.4392838535</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-314312.3244838535</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-368719.2701838535</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-362596.1997838534</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-368849.9427838534</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-360956.0752838535</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-382495.8992838535</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-390820.4195838535</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-387365.3452838535</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-420789.3280838535</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-294918.6998838534</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-246108.1173838534</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-220108.1173838534</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-178515.0114838535</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-185560.7002838535</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-219676.7217838535</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-222229.1687838535</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-239374.8746838535</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-226164.3575838535</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-213950.8414838535</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-205152.3820838535</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-215203.4960838535</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-257379.9573838535</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-171717.2995838535</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-173637.5386838535</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-186637.5386838535</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-276651.9843838535</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-495680.4290838535</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-665398.0405838535</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-673567.3206838535</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-676732.3687838535</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-659511.1007838534</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-669711.1007838534</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-690291.5430838534</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1089247.408483853</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2285599.333883853</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-2509263.927583853</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-2473362.735783853</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2277313.082183853</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2311693.912383853</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2401693.234583854</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2401680.034583854</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2406792.625083853</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2352351.212883853</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2407884.501983854</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2549233.501183853</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2544398.543383854</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2544579.869083853</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-05 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>213283.1073660339</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>191438.9222660339</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>191448.9222660339</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>430234.6496121998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>429742.6590121998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>429752.6590121998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>555177.4848121998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>547921.3703121998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>529241.1510121998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>526444.0931121998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>526454.0931121998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>526464.0931121998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>522233.0931121998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>522123.3431121998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>511923.6021121998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>513923.6021121998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>513933.6021121998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>506360.3046121998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>529142.1833121998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>529153.1178121998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>528794.6237121997</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>551876.2157121997</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>543438.8501121997</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>541563.6046121997</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>541063.6046121997</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>546828.5401121997</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>545880.7162121998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>563932.7162121998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>617667.8105121998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>647163.6174121997</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>783762.5683121998</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>794236.1765121998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>788637.6488121998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>793867.9882121999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>793707.3796121998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>861006.1997121999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>888083.7039121998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1016332.3063122</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>999702.8990121998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>962335.9556121998</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>987911.8149391111</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1153502.712239111</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1190102.458939111</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1170538.173039111</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1294903.030339111</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1268892.030339111</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1304004.395939111</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1324504.395939111</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1315160.425539111</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1411746.356039111</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1402861.456339111</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1349668.360539111</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1342528.497339111</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1310670.380539111</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1250206.746239111</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1298620.043339111</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1278522.021239111</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1288561.110739111</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1278506.489439111</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1261861.797539111</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1264892.308139111</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1264914.131839111</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1259116.217039111</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1258491.569439111</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1258507.569439111</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1256759.631139111</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1256769.631139111</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1246524.569639111</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1246770.798639111</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1215727.349339111</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1177840.597714643</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1366037.219714643</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1358339.467514643</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1265218.636014643</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1265228.636014643</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1220119.288714643</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1220140.288714643</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1221272.018514643</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1126810.138114644</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1125267.489514644</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1125277.489514644</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1121643.379214644</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1122787.009214643</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1121809.062214643</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1109198.374714643</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1032241.444214643</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1023446.958814643</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1030333.203214643</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>970631.4690146435</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>960072.0409466495</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>914052.0388466495</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>945691.8044786556</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>945520.8766786556</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>945920.8766786556</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>948336.3771786556</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>947957.3879786556</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1002829.085178656</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1002482.217478656</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>951495.3926786557</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>944742.8547786557</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>944743.8547786557</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>944713.7547786557</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>943304.0516786557</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>943475.5969786557</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>953851.0409786557</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>951851.0409786557</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>991151.0409786557</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>990843.3592786557</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1017334.720378656</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1017049.367678656</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1017383.164078656</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1019504.367678656</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1050380.349078656</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1050242.271478656</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1060767.305478656</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1064814.707178656</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1144614.707178656</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1145599.195978656</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1241937.697278656</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1461194.175978656</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1591436.011178656</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1843534.737282073</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3669803.406033818</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4058317.733590961</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3963596.51129096</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3861646.60899096</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3706693.23009096</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3486617.02829096</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3750049.55079096</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3646762.58299096</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3522508.12539096</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3647600.72789096</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3636315.370890961</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3632712.451190961</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3633118.451190961</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3595615.413790961</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3613231.037390961</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3611621.601590961</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3561621.601590961</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3567073.987090961</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>204791.3180161465</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>138359.5620161465</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>193963.3607161465</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>253380.3732161465</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>150334.7881161465</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>157910.6156161465</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>157920.6256161465</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>130976.9550161465</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>143363.6018161465</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>86039.57201614653</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>86804.23441614653</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>85640.97971614652</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>85674.97971614652</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>29022.60361614652</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>29032.60361614652</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-199135.3623838535</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-198939.5380838535</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-204723.4644838535</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-202045.7891838535</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-241388.0583838535</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-290795.5212838534</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-245341.6280838535</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-441445.2986838535</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-339437.7906838534</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-428592.7232838534</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-412011.8755838535</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-355462.6805838534</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-326956.6805838534</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-329491.2835838535</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-335953.5555838534</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-296481.2127838535</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-206997.6487838535</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-202744.5273838534</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-207915.0723838535</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-216915.0723838535</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-76060.13908385346</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-76627.95508385346</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-52592.41758385346</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-52792.41758385346</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-36961.05828385346</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-30701.66678385346</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-56589.35608385346</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-445951.9956838535</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-425924.9597838534</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-440282.8267838535</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-381469.3810838535</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-371391.2461838535</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-343591.2461838535</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-348366.4392838535</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-314312.3244838535</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-365232.1085838535</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-368719.2701838535</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-362596.1997838534</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-368849.9427838534</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-360956.0752838535</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-382495.8992838535</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-368433.2092838535</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-390820.4195838535</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-387365.3452838535</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-388241.7089838535</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-420789.3280838535</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-294918.6998838534</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-246108.1173838534</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-260108.1173838534</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-220108.1173838534</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-223828.6974838534</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-178515.0114838535</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-185560.7002838535</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-219676.7217838535</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-215594.6147838535</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-222229.1687838535</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-225879.2687838535</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-239374.8746838535</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-226164.3575838535</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-213950.8414838535</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-205950.8414838535</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-205152.3820838535</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-214523.5584838535</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-187804.1720838535</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-215203.4960838535</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-246108.3540838535</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-241872.9593838535</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-239857.2213838535</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-257379.9573838535</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-163989.2335838535</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-171717.2995838535</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-171217.2995838535</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-173637.5386838535</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-186637.5386838535</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-276651.9843838535</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-495680.4290838535</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-665398.0405838535</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-673567.3206838535</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-676732.3687838535</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-676425.0527838535</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-659511.1007838534</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-669711.1007838534</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-690291.5430838534</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1089247.408483853</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2285599.333883853</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-2509263.927583853</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-2473362.735783853</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-2470895.279583853</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2363058.109883853</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2240901.649183853</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2277313.082183853</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2311693.912383853</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2332457.004983853</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2373603.019383853</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2496410.859283853</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2341209.128283853</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2367254.553183853</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2417627.531283854</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2401693.234583854</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2401680.034583854</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2401867.022183854</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2404340.140183853</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2406792.625083853</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2352351.212883853</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2407904.501983854</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2407884.501983854</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2437084.501983854</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2436428.501983854</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2457228.501983854</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2549233.501183853</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-2549233.501183853</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2544398.543383854</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2544589.869083853</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2544579.869083853</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
